--- a/cleanFiles/New_ini_Target.xlsx
+++ b/cleanFiles/New_ini_Target.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
   <si>
     <t>Test</t>
   </si>
@@ -39,37 +39,40 @@
     <t>goldenphase</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>10000.0</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-39.07</v>
+        <v>-39.59</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -460,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>35.12</v>
+        <v>23.25</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -471,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-38.3</v>
+        <v>-39.17</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -482,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20.89</v>
+        <v>20.18</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -493,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>-37.87</v>
+        <v>-38.47</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -504,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>9.82</v>
+        <v>12.91</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -515,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>-37.91</v>
+        <v>-38.09</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>9.18</v>
+        <v>6.37</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -537,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>-37.81</v>
+        <v>-38.09</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -548,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.95</v>
+        <v>5.98</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -559,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>-37.85</v>
+        <v>-37.99</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -570,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>-0.2</v>
+        <v>1.81</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -581,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>-37.84</v>
+        <v>-38.02</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -592,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>-0.35</v>
+        <v>1.31</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -603,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>-37.85</v>
+        <v>-38</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -614,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>-0.47</v>
+        <v>1.34</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -625,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>-37.77</v>
+        <v>-38.01</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -636,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>-1.89</v>
+        <v>1.46</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -647,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>-37.09</v>
+        <v>-37.89</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -658,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>-5.64</v>
+        <v>3.44</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -669,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>-36.73</v>
+        <v>-37.25</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -680,10 +683,32 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>-6.59</v>
+        <v>10.14</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>-36.91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>10.55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -715,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-31.84</v>
+        <v>-32</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -726,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-25.84</v>
+        <v>-26</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -772,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +832,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-19.84</v>
+        <v>-20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -818,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -853,10 +878,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-13.84</v>
+        <v>-14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -864,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-7.84</v>
+        <v>-8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -910,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.84</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -956,10 +981,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1.84</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1037,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1048,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>1.34</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
